--- a/target/classes/caseconf/userQueryIdByConditionMd/Case_userQueryIdByConditionMd.xlsx
+++ b/target/classes/caseconf/userQueryIdByConditionMd/Case_userQueryIdByConditionMd.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="155">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -349,13 +349,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "12345678",
-"mobileNoAndName":"2a8a5cb80064b05df7c119e3ac0d3726"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>mobileNo存在多条返回值-单独查询</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -368,42 +361,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "33333",
-            "33339",
-            "33338",
-            "33337"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>certAndMobileNo存在多条返回值-单独查询</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nameAndCertNo存在多条返回值-单独查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "33333",
-            "33339",
-            "33338"
-        ]
-    }
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -482,37 +444,8 @@
   <si>
     <t>{
 "tenantId": "123",
-"nameAndMobileNo":"b6db2a24666b000473201b4a152aeaf7",
-"mobileNo":"029d490ce0723928c2f4d8ab186a58c9"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "673"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "123",
 "nameAndMobileNo":"d4ab98448d674678a1148184a8bb93d0",
 "mobileNo":"f87a900fea1eaaa6cca908c06ec83fb0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "123",
-"certAndMobileNo":"",
-"mobileNo":"029d490ce0723928c2f4d8ab186a58c9"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -668,260 +601,6 @@
   </si>
   <si>
     <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "672",
-            "669",
-            "123456"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "12345678",
-"certNo": "f87a900fea1eaaa6cca908c06ec83fb0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "123456"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "672",
-            "671",
-            "123456"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "672",
-            "123456"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "12345678",
-"mobileAndCertNo":"d1ab29f2f0892041e55afa9b6799a17f"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "12345678",
-"certAndMobileNo":"8352084fac1918f696a2f506b2f4ad93"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "672",
-            "123456"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "12345678",
-"nameAndCertNo":"671692efbc5a7e0a977f8835b9647586"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "12345678",
-"certNoAndName":"18bd21b9c16c498a936539656bc24719"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "123456"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "12345678",
-"nameAndMobileNo":"3d3b25c59e3cc5cf23e7895f6fc84d4c"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "123456"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "12345678",
-"mobileNo":"029d490ce0723928c2f4d8ab186a58c9"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "12345678",
-"certNo":"f87a900fea1eaaa6cca908c06ec83fb0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "672",
-            "671",
-            "123456"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "CONSUME",
-"mobileAndCertNo":"13e3527dc04fa9e87fe2f7e8a28d3e56"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "CONSUME",
-"certAndMobileNo":"4a184e2a9d1fd1858f57686530f776bd"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "CONSUME",
-"nameAndCertNo":"4297f44b13955235245b2497399d7a93"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "33333",
-            "33339",
-            "33338"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "CONSUME",
-"certNoAndName":"4297f44b13955235245b2497399d7a93"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "33333",
-            "33339",
-            "33338"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "CONSUME",
-"nameAndMobileNo":"4a184e2a9d1fd1858f57686530f776bd"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "33333",
-            "33339",
-            "33338"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "CONSUME",
-"mobileNoAndName":"13e3527dc04fa9e87fe2f7e8a28d3e56"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "tenantId": "12345678",
 "certNo":"029d490ce0723928c2f4d8ab186a58c9"
 }</t>
@@ -989,10 +668,164 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "123",
-"nameAndMobileNo":"d4ab98448d674678a1148184a8bb93d0",
-"mobileNo":"029d490ce0723928c2f4d8ab186a58c9"
+    <t>mobileNoAndName存在多条返回值-单独查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-002</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-003</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-004</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-005</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-006</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-007</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-008</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-009</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-010</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-011</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-012</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-013</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-014</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-015</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-016</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-017</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-018</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-019</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-020</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-021</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-022</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-023</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-024</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-025</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-026</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-027</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-028</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-029</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-030</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-031</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-032</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-033</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-034</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-035</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-036</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-037</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-038</t>
+  </si>
+  <si>
+    <t>userQueryIdByConditionMd-039</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =000114  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000114 and tenant_id = 1001;
+delete from user_index where tenant_user_id =000114 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item values (1003536627,"699267680360341504","1001","000114","name","张*","ZWQFYWpafhg=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1003536628,"699267680360341504","1001","000114","mobileNo","098*6543","AuXhnHPuWt0b+77rek3u7Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1003536629,"699267680360341504","1001","000114","certNo","1234*6789","Xs4DnaBRVMfLNK8q4VwrbA==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699267680360341504","1001","000114",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNEY1UHRVdHQvTkpGaHhMYkNxNTkwN3VmQjFMRTNyMWdBQUFBQUFBQUFBQ0dpOWFESFJ3M1FZR1JCMDlYRjJHVGhQdVdnVG4vdk1MMVFWQTRlL0NaRXRXL25BMWlCUHB3RzFWdWdYYUxnQjNub0VIV01FTGFtMjB4K0ptVHRZdmRHVnN4Tk1ONzhMR2VQN0FkelBaSks5YmFzdVp6T2F3QXZlbnJZYXJUN0lDbHJHNGNLU0k3cUI0RGVwWWZPcVp4Q3ZHTGhLbXQxUzh2cnR4Ti9FVEp1NHdRdEs3MS9aWVZWTWg4b1ZQR0IwRGgvd0t6cmdFZm5XaElTc2ZVY2RVSHJIWTcrMitlQVRaekdMOGVFWWM3U1NYZExxTmwzQ3pYZElCVHg4Wm1NVDNEaUhQSS9rZkduRHhrZ1R3S2V5QzZ4UnlsdTRQUG5lOW1vUHNtR3RkMmpETndYSXJWMGRvSGhROXBqRCtSVGtsMFczTU9pM1RLL3pnVzFFUXptK0tNbEt5ZmNoOXFsNUphb1Bvamk3SEFVZVVaZm5uRWx6YzlibnRudEpHb0F0a21mallHb29tWmd5YklVZGdDWld5aktJSHRBNFR5MUZ4VXdFMDE3UmJPbUF0VUxLOUUxb3V6UndiaDNXRW1sdndUVW9LZTI1S3ZXQ3ZWMEJ6dFNCRUIraUljZHVjR3FXQT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699267680360341504","1001","000114","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (1003537272,"699267730016706560","1001","000115","name","张*","ZWQFYWpafhg=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1003537274,"699267730016706560","1001","000115","mobileNo","098*6543","AuXhnHPuWt0b+77rek3u7Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1003537279,"699267730016706560","1001","000115","certNo","1234*6789","Xs4DnaBRVMfLNK8q4VwrbA==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699267730016706560","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVibmw3cjArTWN3eSsxN2hoSHZPbXlzNEtnaUdPMnJWMXFBQUFBQUFBQUFBQXhYMzEwMit6Q29vUUxtUk0rNlUvRXJ4amNNVkpBS05ZbnNMRlE2a3BUYVVLdm80QnVqbTFlMWtrSlplZ2ZJSW5keTVvUkp2ME1LMitYQ20xWTdnb0lRYXBwVmZHdVJrS0Rwa3BPZzdmaExmbXBRcDNYbkFmVy96K3JQbUE2Slk1NmVOU2ZtMys4NDQ5aVBkN3pweXFFdWxlOFhwUDBGUHBnc2RPT0s5V1JOd2VjQVUrSUZkSnlsYVRXWllNMDlYZG04eU43aXY3WldwMG9TYzE4M0k2d2p4eGRoZkw5Rm44c3J1OGN6MkxIR2ZpeS9meDdzSkFTVWN1NU5Bb29Bd1hkTjltMDExQlluZmhHRXRzRHl2bWdZTXpWcUhMa0xWZXRRSzZkVVFUUkVHbHdpQVZ4aC9CRTNZU2FBaG1nVHRmWUtQK0tuUE9Sckh0RXJDN3ZCeWpkdlp5QTJZalcyeHRJMG5Nd3FCU016TmZYS0U3MG1QbHR0Mk1YbG4rRitWWnRIZnBVMm9VeURNRUorbG80R1kreERBN0U5d1YzaEpkVUtubWNSQVE4cm1OWWtpTWVZbk5BMVgxZEs2QlZud0N5UHdDTlNMQXIyRmhpMnBPR1NJYnRVMnNOUlJxUkpYTT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699267730016706560","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNo":"9337473d97849183519161fea2bfd554"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1003,9 +836,7 @@
     "successful": 1,
     "data": {
         "tenantUserIds": [
-            "672",
-            "669",
-            "123456"
+            "000113"
         ]
     }
 }</t>
@@ -1013,13 +844,173 @@
   </si>
   <si>
     <t>{
-"tenantId": "12345678",
-"mobileNo": "029d490ce0723928c2f4d8ab186a58c9"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileNoAndName存在多条返回值-单独查询</t>
+"tenantId": "1001",
+"certNo":"67b10fbf4bd7cd6871830cf7fe5ee581"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileAndCertNo":"37f23ec7e589c3d77d162ddaccb495f8"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantUserIds": [
+            "000113"
+        ]
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"certAndMobileNo":"458fdf82207c3a7d063d4924c2d310a2"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"nameAndCertNo":"6252a94479dbeb9c309a061962389948"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantUserIds": [
+            "000113"
+        ]
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"certNoAndName":"233bcb92b24dbebd294b2eade430541d"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"nameAndMobileNo":"e5a3a77b29f86275295b31a1289e5400"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoAndName":"c7ca10cbfddc6285810765c42cf91159"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantUserIds": [
+            "000113"
+        ]
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNo":"b7a2c3b25c9441b0a38d0a874ace268b"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantUserIds": [
+            "000115",
+            "000114"
+        ]
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"certNo":"25f9e794323b453885f5181f1b624d0b"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileAndCertNo":"6ba95c3ff079addbb41f11abafdcf309"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantUserIds": [
+            "000115",
+            "000114"
+        ]
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"certAndMobileNo":"4df26a6fa586595b95b2fc13af908097"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"nameAndCertNo":"61b9b61e7c69d918afd528bf4e7083b2"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"certNoAndName":"d5620d7cc0745e4ef0302a169301e6f0"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"nameAndMobileNo":"7505dbf9dd9b293008992535c613876b"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoAndName":"184b48703d3d6dd25028c2aa63840b1d"
+}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1030,122 +1021,42 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>userQueryIdByConditionMd-001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-002</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-003</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-004</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-005</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-006</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-007</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-008</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-009</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-010</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-011</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-012</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-013</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-014</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-015</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-016</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-017</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-018</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-019</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-020</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-021</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-022</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-023</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-024</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-025</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-026</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-027</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-028</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-029</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-030</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-031</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-032</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-033</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-034</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-035</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-036</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-037</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-038</t>
-  </si>
-  <si>
-    <t>userQueryIdByConditionMd-039</t>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantUserIds": [
+            "000115",
+            "000114"
+        ]
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"nameAndMobileNo":"7505dbf9dd9b293008992535c613876b",
+"mobileNo":"b7a2c3b25c9441b0a38d0a874ace268b"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"nameAndMobileNo":"7505dbf9dd9b293008992535c613876b",
+"mobileNo":"b7a2c3b25c9441b0a38d0a874ace333b"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"nameAndMobileNo":"",
+"mobileNo":"b7a2c3b25c9441b0a38d0a874ace268b"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1260,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1339,6 +1250,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1626,7 +1540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1705,15 +1619,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1724,11 +1642,11 @@
         <v>14</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="N2" s="9"/>
     </row>
@@ -1737,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>28</v>
@@ -1756,20 +1674,20 @@
         <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="18" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="79" customHeight="1">
+    <row r="4" spans="1:16" ht="138.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>30</v>
@@ -1788,11 +1706,11 @@
         <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="18" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -1801,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>31</v>
@@ -1820,11 +1738,11 @@
         <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -1833,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>32</v>
@@ -1852,11 +1770,11 @@
         <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -1865,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>33</v>
@@ -1884,11 +1802,11 @@
         <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -1897,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>34</v>
@@ -1916,11 +1834,11 @@
         <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -1929,7 +1847,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>35</v>
@@ -1948,11 +1866,11 @@
         <v>14</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="18" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="N9" s="9"/>
     </row>
@@ -1961,10 +1879,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1980,11 +1898,11 @@
         <v>14</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="18" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="N10" s="9"/>
     </row>
@@ -1993,10 +1911,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -2012,11 +1930,11 @@
         <v>14</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="18" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="N11" s="9"/>
     </row>
@@ -2025,10 +1943,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2044,23 +1962,23 @@
         <v>14</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="18" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:16" ht="182">
+    <row r="13" spans="1:16" ht="154">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2076,23 +1994,23 @@
         <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="154">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" ht="168">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2108,23 +2026,23 @@
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="18" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="168">
+    <row r="15" spans="1:16" ht="154">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2140,23 +2058,23 @@
         <v>14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="18" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="168">
+    <row r="16" spans="1:16" ht="154">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -2172,23 +2090,23 @@
         <v>14</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="18" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="168">
+    <row r="17" spans="1:14" ht="154">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2204,11 +2122,11 @@
         <v>14</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="18" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="N17" s="9"/>
     </row>
@@ -2217,7 +2135,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>21</v>
@@ -2236,11 +2154,11 @@
         <v>14</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="18" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="N18" s="9"/>
     </row>
@@ -2249,10 +2167,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2268,11 +2186,11 @@
         <v>14</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="18" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="N19" s="9"/>
     </row>
@@ -2281,10 +2199,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2300,11 +2218,11 @@
         <v>14</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="18" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="N20" s="9"/>
     </row>
@@ -2313,10 +2231,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2332,11 +2250,11 @@
         <v>14</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="18" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N21" s="9"/>
     </row>
@@ -2345,10 +2263,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -2364,11 +2282,11 @@
         <v>14</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N22" s="9"/>
     </row>
@@ -2377,10 +2295,10 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2396,11 +2314,11 @@
         <v>14</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N23" s="9"/>
     </row>
@@ -2409,10 +2327,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2428,11 +2346,11 @@
         <v>14</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N24" s="9"/>
     </row>
@@ -2441,10 +2359,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2460,20 +2378,20 @@
         <v>14</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="140">
+    <row r="26" spans="1:14" ht="154">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>22</v>
@@ -2492,11 +2410,11 @@
         <v>14</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="18" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -2505,7 +2423,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>23</v>
@@ -2524,11 +2442,11 @@
         <v>14</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -2537,7 +2455,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>24</v>
@@ -2556,11 +2474,11 @@
         <v>14</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="18" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="N28" s="11"/>
     </row>
@@ -2569,7 +2487,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>25</v>
@@ -2588,11 +2506,11 @@
         <v>14</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N29" s="11"/>
     </row>
@@ -2601,10 +2519,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -2620,11 +2538,11 @@
         <v>14</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N30" s="11"/>
     </row>
@@ -2633,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>20</v>
@@ -2652,11 +2570,11 @@
         <v>14</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="24" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="N31" s="11"/>
     </row>
@@ -2665,7 +2583,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>15</v>
@@ -2684,11 +2602,11 @@
         <v>14</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L32" s="23"/>
       <c r="M32" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N32" s="11"/>
     </row>
@@ -2697,10 +2615,10 @@
         <v>13</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="21"/>
@@ -2716,11 +2634,11 @@
         <v>14</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L33" s="23"/>
       <c r="M33" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N33" s="11"/>
     </row>
@@ -2729,10 +2647,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="21"/>
@@ -2748,11 +2666,11 @@
         <v>14</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L34" s="23"/>
       <c r="M34" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N34" s="11"/>
     </row>
@@ -2761,10 +2679,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="21"/>
@@ -2780,11 +2698,11 @@
         <v>14</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L35" s="23"/>
       <c r="M35" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N35" s="11"/>
     </row>
@@ -2793,10 +2711,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="21"/>
@@ -2812,11 +2730,11 @@
         <v>14</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N36" s="9"/>
     </row>
@@ -2825,10 +2743,10 @@
         <v>13</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="21"/>
@@ -2844,11 +2762,11 @@
         <v>14</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N37" s="9"/>
     </row>
@@ -2857,10 +2775,10 @@
         <v>13</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="21"/>
@@ -2876,11 +2794,11 @@
         <v>14</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="12"/>
@@ -2890,10 +2808,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="21"/>
@@ -2909,11 +2827,11 @@
         <v>14</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L39" s="23"/>
       <c r="M39" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="12"/>
@@ -2923,10 +2841,10 @@
         <v>13</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="21"/>
@@ -2942,11 +2860,11 @@
         <v>14</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L40" s="23"/>
       <c r="M40" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>

--- a/target/classes/caseconf/userQueryIdByConditionMd/Case_userQueryIdByConditionMd.xlsx
+++ b/target/classes/caseconf/userQueryIdByConditionMd/Case_userQueryIdByConditionMd.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="155">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -790,19 +790,6 @@
     <t>userQueryIdByConditionMd-039</t>
   </si>
   <si>
-    <t>delete from user_basic_info where tenant_user_id =000114  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000114 and tenant_id = 1001;
-delete from user_index where tenant_user_id =000114 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">insert into user_info_item values (1003536627,"699267680360341504","1001","000114","name","张*","ZWQFYWpafhg=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (1003536628,"699267680360341504","1001","000114","mobileNo","098*6543","AuXhnHPuWt0b+77rek3u7Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (1003536629,"699267680360341504","1001","000114","certNo","1234*6789","Xs4DnaBRVMfLNK8q4VwrbA==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -1057,6 +1044,19 @@
 "mobileNo":"b7a2c3b25c9441b0a38d0a874ace268b"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =000114  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000114 and tenant_id = 1001;
+delete from user_index where tenant_user_id =000114 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1540,7 +1540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1627,10 +1627,10 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
@@ -1642,11 +1642,11 @@
         <v>14</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N2" s="9"/>
     </row>
@@ -1662,8 +1662,12 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1674,11 +1678,11 @@
         <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N3" s="9"/>
     </row>
@@ -1694,8 +1698,12 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1706,11 +1714,11 @@
         <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -1726,8 +1734,12 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1738,11 +1750,11 @@
         <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -1758,8 +1770,12 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1770,11 +1786,11 @@
         <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -1790,8 +1806,12 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
@@ -1802,11 +1822,11 @@
         <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -1822,8 +1842,12 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1834,11 +1858,11 @@
         <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -1854,8 +1878,12 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1866,11 +1894,11 @@
         <v>14</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N9" s="9"/>
     </row>
@@ -1886,8 +1914,12 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1898,11 +1930,11 @@
         <v>14</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N10" s="9"/>
     </row>
@@ -1918,8 +1950,12 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1930,11 +1966,11 @@
         <v>14</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N11" s="9"/>
     </row>
@@ -1950,8 +1986,12 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1962,15 +2002,15 @@
         <v>14</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:16" ht="154">
+    <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1982,8 +2022,12 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1994,15 +2038,15 @@
         <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:16" ht="154">
+    <row r="14" spans="1:16" ht="409.5">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2014,8 +2058,12 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>16</v>
       </c>
@@ -2026,15 +2074,15 @@
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="154">
+    <row r="15" spans="1:16" ht="409.5">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2046,8 +2094,12 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H15" s="10" t="s">
         <v>16</v>
       </c>
@@ -2058,15 +2110,15 @@
         <v>14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="154">
+    <row r="16" spans="1:16" ht="409.5">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2078,8 +2130,12 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>16</v>
       </c>
@@ -2090,15 +2146,15 @@
         <v>14</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="154">
+    <row r="17" spans="1:14" ht="409.5">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2110,8 +2166,12 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2122,15 +2182,15 @@
         <v>14</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="112">
+    <row r="18" spans="1:14" ht="409.5">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2142,8 +2202,12 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2154,7 +2218,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="18" t="s">
@@ -2162,7 +2226,7 @@
       </c>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="112">
+    <row r="19" spans="1:14" ht="409.5">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2174,8 +2238,12 @@
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2262,7 @@
       </c>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="112">
+    <row r="20" spans="1:14" ht="409.5">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -2206,8 +2274,12 @@
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H20" s="10" t="s">
         <v>16</v>
       </c>
@@ -2238,8 +2310,12 @@
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H21" s="10" t="s">
         <v>16</v>
       </c>
@@ -2258,7 +2334,7 @@
       </c>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="112">
+    <row r="22" spans="1:14" ht="409.5">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -2270,8 +2346,12 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H22" s="10" t="s">
         <v>16</v>
       </c>
@@ -2290,7 +2370,7 @@
       </c>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="112">
+    <row r="23" spans="1:14" ht="409.5">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2302,8 +2382,12 @@
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2334,8 +2418,12 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H24" s="10" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2442,7 @@
       </c>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="112">
+    <row r="25" spans="1:14" ht="409.5">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -2366,8 +2454,12 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2386,7 +2478,7 @@
       </c>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="154">
+    <row r="26" spans="1:14" ht="409.5">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2398,8 +2490,12 @@
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H26" s="10" t="s">
         <v>16</v>
       </c>
@@ -2410,15 +2506,15 @@
         <v>14</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="112">
+    <row r="27" spans="1:14" ht="409.5">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2430,8 +2526,12 @@
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2450,7 +2550,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="112">
+    <row r="28" spans="1:14" ht="409.5">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2462,8 +2562,12 @@
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H28" s="10" t="s">
         <v>16</v>
       </c>
@@ -2474,7 +2578,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="18" t="s">
@@ -2482,7 +2586,7 @@
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="112">
+    <row r="29" spans="1:14" ht="409.5">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -2494,8 +2598,12 @@
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="H29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2506,7 +2614,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="18" t="s">

--- a/target/classes/caseconf/userQueryIdByConditionMd/Case_userQueryIdByConditionMd.xlsx
+++ b/target/classes/caseconf/userQueryIdByConditionMd/Case_userQueryIdByConditionMd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5980" yWindow="-28100" windowWidth="45980" windowHeight="26340"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryIdByConditionMd" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="164">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -865,20 +865,6 @@
   </si>
   <si>
     <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "000115",
-            "000114"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "tenantId": "1001",
 "certAndMobileNo":"4df26a6fa586595b95b2fc13af908097"
 }</t>
@@ -1111,20 +1097,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantUserIds": [
-            "000115",
-            "000114"
-        ]
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into user_info_item values (1003536627,"699267680360341504","1001","000114","name","张*","ZWQFYWpafhg=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (1003536628,"699267680360341504","1001","000114","mobileNo","098*6543","AuXhnHPuWt0b+77rek3u7Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (1003536629,"699267680360341504","1001","000114","certNo","1234*6789","Xs4DnaBRVMfLNK8q4VwrbA==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -1164,8 +1136,8 @@
     "successful": 1,
     "data": {
         "tenantUserIds": [
-            "000115",
-            "000114"
+            "000114",
+            "000115"
         ]
     }
 }</t>
@@ -1272,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1350,6 +1322,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1635,17 +1616,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="112" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="112" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="G36" sqref="G36"/>
+      <selection pane="topRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="29" customWidth="1"/>
     <col min="4" max="4" width="1" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="76" style="8" customWidth="1"/>
@@ -1669,7 +1650,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1719,16 +1700,16 @@
       <c r="B2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -1740,7 +1721,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="17" t="s">
@@ -1755,16 +1736,16 @@
       <c r="B3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -1786,21 +1767,21 @@
     </row>
     <row r="4" spans="1:16" ht="138.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -1822,21 +1803,21 @@
     </row>
     <row r="5" spans="1:16" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -1858,21 +1839,21 @@
     </row>
     <row r="6" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -1894,21 +1875,21 @@
     </row>
     <row r="7" spans="1:16" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -1930,21 +1911,21 @@
     </row>
     <row r="8" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -1960,27 +1941,27 @@
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1996,27 +1977,27 @@
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>159</v>
+      <c r="C10" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -2032,27 +2013,27 @@
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -2068,27 +2049,27 @@
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -2104,27 +2085,27 @@
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -2136,31 +2117,31 @@
         <v>14</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="17" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -2172,31 +2153,31 @@
         <v>14</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="17" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -2208,31 +2189,31 @@
         <v>14</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="17" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -2244,31 +2225,31 @@
         <v>14</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="17" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="28" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -2280,22 +2261,22 @@
         <v>14</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="17" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14"/>
@@ -2312,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="17" t="s">
@@ -2322,12 +2303,12 @@
     </row>
     <row r="19" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="14"/>
@@ -2344,7 +2325,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="17" t="s">
@@ -2354,12 +2335,12 @@
     </row>
     <row r="20" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="14"/>
@@ -2376,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="17" t="s">
@@ -2386,12 +2367,12 @@
     </row>
     <row r="21" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="14"/>
@@ -2408,7 +2389,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="17" t="s">
@@ -2418,12 +2399,12 @@
     </row>
     <row r="22" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="14"/>
@@ -2440,7 +2421,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="17" t="s">
@@ -2450,12 +2431,12 @@
     </row>
     <row r="23" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="14"/>
@@ -2472,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="17" t="s">
@@ -2482,12 +2463,12 @@
     </row>
     <row r="24" spans="1:14" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="14"/>
@@ -2504,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="17" t="s">
@@ -2514,12 +2495,12 @@
     </row>
     <row r="25" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="28" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="14"/>
@@ -2536,7 +2517,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="17" t="s">
@@ -2546,21 +2527,21 @@
     </row>
     <row r="26" spans="1:14" ht="409" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -2572,22 +2553,22 @@
         <v>14</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="25"/>
@@ -2604,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L27" s="15"/>
       <c r="M27" s="17" t="s">
@@ -2614,21 +2595,21 @@
     </row>
     <row r="28" spans="1:14" ht="409" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>142</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -2640,7 +2621,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="17" t="s">
@@ -2650,21 +2631,21 @@
     </row>
     <row r="29" spans="1:14" ht="409" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>142</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -2676,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="17" t="s">
@@ -2686,12 +2667,12 @@
     </row>
     <row r="30" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="14"/>
@@ -2718,7 +2699,7 @@
     </row>
     <row r="31" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>107</v>
@@ -2737,7 +2718,7 @@
         <v>27</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>52</v>
@@ -2750,12 +2731,12 @@
     </row>
     <row r="32" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="21"/>
@@ -2782,12 +2763,12 @@
     </row>
     <row r="33" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="21"/>
@@ -2814,12 +2795,12 @@
     </row>
     <row r="34" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="21"/>
@@ -2846,12 +2827,12 @@
     </row>
     <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="28" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="21"/>
@@ -2878,12 +2859,12 @@
     </row>
     <row r="36" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D36" s="21"/>
@@ -2910,12 +2891,12 @@
     </row>
     <row r="37" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="28" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="21"/>
@@ -2942,12 +2923,12 @@
     </row>
     <row r="38" spans="1:15" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="21"/>
@@ -2975,12 +2956,12 @@
     </row>
     <row r="39" spans="1:15" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="21"/>
@@ -3008,12 +2989,12 @@
     </row>
     <row r="40" spans="1:15" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="21"/>
